--- a/public/Uploads/Data.xlsx
+++ b/public/Uploads/Data.xlsx
@@ -11,30 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>{"Recepient":"Ahmad Bilal Aslam","Last Name":"Aslam","CGPA":2.5,"Date of Graduation":43470,"Batch":2015,"Email":"ahmadbilal07@live.com","Program":"BSAF","Institution":"FAST","Public Key":"0x6e6F07247161E22E1a259196F483cCEC21dfBfF9"}</t>
+    <t>{"Public Key":"0x6e6F07247161E22E1a259196F483cCEC21dfBfF9"}</t>
   </si>
   <si>
-    <t>[{"position":"right","data":{"type":"Buffer","data":[246,38,214,109,86,77,150,83,255,189,175,84,142,167,122,226,119,127,140,128,86,185,58,175,163,145,85,41,146,49,130,107]}},{"position":"right","data":{"type":"Buffer","data":[86,22,92,128,168,141,151,171,22,150,41,77,7,96,12,113,140,91,70,100,86,213,253,41,242,200,16,15,125,90,68,89]}}]</t>
-  </si>
-  <si>
-    <t>{"Recepient":"Hashir Baig","Last Name":"Baig","CGPA":2.9,"Date of Graduation":43470,"Batch":2015,"Email":"Hashirbaig@gmail.com","Program":"BSAF","Institution":"FAST","Public Key":"0x6e6F07247161E22E1a259196F483cCEC21dfBfF9"}</t>
-  </si>
-  <si>
-    <t>[{"position":"left","data":{"type":"Buffer","data":[127,17,17,229,92,240,49,109,186,148,134,37,228,146,254,192,98,6,12,133,162,213,207,77,129,208,86,118,17,176,59,173]}},{"position":"right","data":{"type":"Buffer","data":[86,22,92,128,168,141,151,171,22,150,41,77,7,96,12,113,140,91,70,100,86,213,253,41,242,200,16,15,125,90,68,89]}}]</t>
-  </si>
-  <si>
-    <t>{"Recepient":"Tanzeel Hassan","Last Name":"Hassan","CGPA":3.4,"Date of Graduation":43470,"Batch":2015,"Email":"tanzilbaghoor@gmail.com","Program":"BSAF","Institution":"FAST","Public Key":"0x6e6F07247161E22E1a259196F483cCEC21dfBfF9"}</t>
-  </si>
-  <si>
-    <t>[{"position":"right","data":{"type":"Buffer","data":[141,165,25,70,194,141,227,21,161,59,98,153,138,73,16,187,233,150,227,246,107,199,53,184,199,9,150,132,42,119,35,71]}},{"position":"left","data":{"type":"Buffer","data":[31,184,107,95,189,150,166,53,11,41,116,126,63,67,117,209,110,209,27,251,154,215,140,102,225,0,115,183,213,8,172,7]}}]</t>
-  </si>
-  <si>
-    <t>{"Recepient":"Taha Shahid","Last Name":"Shahid","CGPA":2.5,"Date of Graduation":43470,"Batch":2015,"Email":"tahashahid101010@gmail.com","Program":"BSAF","Institution":"FAST","Public Key":"0x6e6F07247161E22E1a259196F483cCEC21dfBfF9"}</t>
-  </si>
-  <si>
-    <t>[{"position":"left","data":{"type":"Buffer","data":[177,210,28,39,22,65,246,174,0,45,116,180,231,67,177,49,88,39,148,248,76,139,211,154,133,196,161,229,250,222,188,15]}},{"position":"left","data":{"type":"Buffer","data":[31,184,107,95,189,150,166,53,11,41,116,126,63,67,117,209,110,209,27,251,154,215,140,102,225,0,115,183,213,8,172,7]}}]</t>
+    <t>[{"position":"left","data":{"type":"Buffer","data":[7,233,223,88,136,209,11,222,11,114,243,110,147,171,54,133,130,80,71,141,143,152,225,57,34,125,67,247,104,17,83,94]}}]</t>
   </si>
 </sst>
 </file>
@@ -74,7 +56,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -90,26 +72,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
